--- a/Dedupecal_202308L.xlsx
+++ b/Dedupecal_202308L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMCD-\Desktop\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98870213-DA0B-4915-BD4E-F347525E8AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2EC24E-9817-429E-91B6-F96192B65CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="2385" windowWidth="20775" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Storage Efficiency" sheetId="5" r:id="rId1"/>
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Compression Factor</t>
   </si>
@@ -554,9 +554,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Estimate how long to transfervthis data</t>
-  </si>
-  <si>
-    <t>Two2-Zero0-Two2-Three2-Zero0-Eight8</t>
   </si>
 </sst>
 </file>
@@ -2866,64 +2863,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,64 +3040,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.78947368421052</c:v>
+                  <c:v>73.684210526315795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>77.777777777777771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>352.94117647058823</c:v>
+                  <c:v>82.352941176470594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>93.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>428.57142857142861</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>461.53846153846155</c:v>
+                  <c:v>107.69230769230769</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>499.99999999999994</c:v>
+                  <c:v>116.66666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>545.45454545454538</c:v>
+                  <c:v>127.27272727272727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>666.66666666666652</c:v>
+                  <c:v>155.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>750</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>857.14285714285722</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1000.0000000000002</c:v>
+                  <c:v>233.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1200.0000000000005</c:v>
+                  <c:v>280.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1500.0000000000011</c:v>
+                  <c:v>350.00000000000028</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2000.0000000000027</c:v>
+                  <c:v>466.66666666666731</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3000.0000000000073</c:v>
+                  <c:v>700.00000000000171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6000.0000000000346</c:v>
+                  <c:v>1400.0000000000082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3782,64 +3779,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4513,64 +4510,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5083,64 +5080,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>140.625</c:v>
+                  <c:v>7.03125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.0263157894737</c:v>
+                  <c:v>7.4013157894736841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>165.44117647058826</c:v>
+                  <c:v>8.2720588235294112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>175.78125</c:v>
+                  <c:v>8.7890625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.5</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.89285714285717</c:v>
+                  <c:v>10.044642857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>216.34615384615381</c:v>
+                  <c:v>10.817307692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234.37499999999997</c:v>
+                  <c:v>11.71875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>255.68181818181816</c:v>
+                  <c:v>12.78409090909091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>281.25</c:v>
+                  <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>312.5</c:v>
+                  <c:v>15.624999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>351.5625</c:v>
+                  <c:v>17.578125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>401.78571428571433</c:v>
+                  <c:v>20.089285714285715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>468.75000000000011</c:v>
+                  <c:v>23.437500000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>562.50000000000023</c:v>
+                  <c:v>28.125000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>703.12500000000045</c:v>
+                  <c:v>35.156250000000021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>937.50000000000136</c:v>
+                  <c:v>46.875000000000064</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1406.2500000000036</c:v>
+                  <c:v>70.312500000000171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2812.5000000000164</c:v>
+                  <c:v>140.6250000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5247,64 +5244,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1054.6875</c:v>
+                  <c:v>52.734375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1110.1973684210527</c:v>
+                  <c:v>55.509868421052637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1171.875</c:v>
+                  <c:v>58.59375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1240.8088235294117</c:v>
+                  <c:v>62.040441176470594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318.359375</c:v>
+                  <c:v>65.91796875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1406.2500000000002</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1506.6964285714287</c:v>
+                  <c:v>75.334821428571445</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1622.5961538461538</c:v>
+                  <c:v>81.129807692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1757.8124999999995</c:v>
+                  <c:v>87.890624999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1917.613636363636</c:v>
+                  <c:v>95.880681818181813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2109.375</c:v>
+                  <c:v>105.46875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2343.7499999999995</c:v>
+                  <c:v>117.18749999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2636.71875</c:v>
+                  <c:v>131.8359375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3013.3928571428573</c:v>
+                  <c:v>150.66964285714289</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3515.6250000000009</c:v>
+                  <c:v>175.78125000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4218.7500000000018</c:v>
+                  <c:v>210.93750000000009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5273.4375000000036</c:v>
+                  <c:v>263.67187500000017</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7031.2500000000091</c:v>
+                  <c:v>351.56250000000045</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10546.875000000025</c:v>
+                  <c:v>527.34375000000125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21093.750000000124</c:v>
+                  <c:v>1054.6875000000061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5410,64 +5407,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>26.3671875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>27.754934210526319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29.296875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>31.020220588235297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32.958984375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>35.15625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>37.667410714285722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>40.564903846153847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>43.945312499999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>47.940340909090907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>52.734375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>58.593749999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>65.91796875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>75.334821428571445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>87.890625000000028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>105.46875000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>131.83593750000009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>175.78125000000023</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>263.67187500000063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>527.34375000000307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5574,64 +5571,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.515625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.700657894736842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.90625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.1360294117647056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.39453125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.0223214285714288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.4086538461538467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.859375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.392045454545455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.03125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7.8124999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8.7890625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>10.044642857142858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>11.718750000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>14.062500000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>17.578125000000011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>23.437500000000032</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>35.156250000000085</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>70.312500000000398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6125,64 +6122,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.36977777777777782</c:v>
+                  <c:v>1.1377777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35128888888888887</c:v>
+                  <c:v>1.080888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33280000000000004</c:v>
+                  <c:v>1.0239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3143111111111111</c:v>
+                  <c:v>0.96711111111111103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29582222222222221</c:v>
+                  <c:v>0.91022222222222227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27733333333333332</c:v>
+                  <c:v>0.85333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25884444444444443</c:v>
+                  <c:v>0.7964444444444444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24035555555555557</c:v>
+                  <c:v>0.73955555555555563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22186666666666671</c:v>
+                  <c:v>0.68266666666666675</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2033777777777778</c:v>
+                  <c:v>0.62577777777777788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18488888888888891</c:v>
+                  <c:v>0.56888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16640000000000002</c:v>
+                  <c:v>0.51200000000000012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1479111111111111</c:v>
+                  <c:v>0.45511111111111113</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12942222222222222</c:v>
+                  <c:v>0.3982222222222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1109333333333333</c:v>
+                  <c:v>0.34133333333333327</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.2444444444444412E-2</c:v>
+                  <c:v>0.28444444444444433</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3955555555555511E-2</c:v>
+                  <c:v>0.22755555555555537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5466666666666588E-2</c:v>
+                  <c:v>0.17066666666666644</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6977777777777693E-2</c:v>
+                  <c:v>0.11377777777777751</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8488888888888784E-2</c:v>
+                  <c:v>5.6888888888888565E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6289,64 +6286,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.29582222222222221</c:v>
+                  <c:v>0.91022222222222227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28103111111111106</c:v>
+                  <c:v>0.86471111111111099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26623999999999998</c:v>
+                  <c:v>0.81919999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25144888888888883</c:v>
+                  <c:v>0.77368888888888887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23665777777777777</c:v>
+                  <c:v>0.72817777777777781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22186666666666666</c:v>
+                  <c:v>0.68266666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20707555555555554</c:v>
+                  <c:v>0.63715555555555548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19228444444444445</c:v>
+                  <c:v>0.59164444444444442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17749333333333336</c:v>
+                  <c:v>0.54613333333333347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16270222222222225</c:v>
+                  <c:v>0.5006222222222223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1479111111111111</c:v>
+                  <c:v>0.45511111111111113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13312000000000002</c:v>
+                  <c:v>0.40960000000000013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11832888888888889</c:v>
+                  <c:v>0.36408888888888891</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10353777777777777</c:v>
+                  <c:v>0.31857777777777774</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.874666666666664E-2</c:v>
+                  <c:v>0.27306666666666657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3955555555555524E-2</c:v>
+                  <c:v>0.22755555555555548</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9164444444444395E-2</c:v>
+                  <c:v>0.18204444444444431</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4373333333333279E-2</c:v>
+                  <c:v>0.13653333333333315</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9582222222222149E-2</c:v>
+                  <c:v>9.1022222222222005E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4791111111111026E-2</c:v>
+                  <c:v>4.5511111111110843E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6454,64 +6451,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.8204444444444445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.729422222222222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6383999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.5473777777777777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4563555555555556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.3653333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.274311111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.1832888888888888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0922666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0012444444444446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.91022222222222227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.81920000000000026</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.72817777777777781</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.63715555555555548</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.54613333333333314</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.45511111111111097</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.36408888888888863</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.27306666666666629</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.18204444444444401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>9.1022222222221685E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6620,64 +6617,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.2755555555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.161777777777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.0479999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9342222222222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.8204444444444445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7066666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.5928888888888888</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.4791111111111113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.3653333333333335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.2515555555555558</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.1377777777777778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.0240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.91022222222222227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.7964444444444444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.68266666666666653</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.56888888888888867</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.45511111111111074</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.34133333333333288</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.22755555555555501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.11377777777777713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7106,64 +7103,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.21052631578948</c:v>
+                  <c:v>8.4210526315789469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.888888888888886</c:v>
+                  <c:v>8.8888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.117647058823536</c:v>
+                  <c:v>9.4117647058823533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.66666666666667</c:v>
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114.28571428571429</c:v>
+                  <c:v>11.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.07692307692307</c:v>
+                  <c:v>12.307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133.33333333333331</c:v>
+                  <c:v>13.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145.45454545454544</c:v>
+                  <c:v>14.545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>160</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>177.77777777777774</c:v>
+                  <c:v>17.777777777777775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>228.57142857142858</c:v>
+                  <c:v>22.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>266.66666666666674</c:v>
+                  <c:v>26.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>320.00000000000011</c:v>
+                  <c:v>32.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.00000000000028</c:v>
+                  <c:v>40.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>533.33333333333405</c:v>
+                  <c:v>53.333333333333407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>800.00000000000193</c:v>
+                  <c:v>80.000000000000199</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1600.0000000000093</c:v>
+                  <c:v>160.00000000000091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7270,64 +7267,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.26315789473685</c:v>
+                  <c:v>10.526315789473685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>11.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.64705882352942</c:v>
+                  <c:v>11.764705882352942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133.33333333333334</c:v>
+                  <c:v>13.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>14.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.84615384615384</c:v>
+                  <c:v>15.384615384615383</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.66666666666663</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181.81818181818181</c:v>
+                  <c:v>18.18181818181818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>222.2222222222222</c:v>
+                  <c:v>22.222222222222218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>250</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>285.71428571428572</c:v>
+                  <c:v>28.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>333.33333333333343</c:v>
+                  <c:v>33.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400.00000000000017</c:v>
+                  <c:v>40.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>500.0000000000004</c:v>
+                  <c:v>50.000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>666.66666666666754</c:v>
+                  <c:v>66.666666666666757</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000.0000000000024</c:v>
+                  <c:v>100.00000000000024</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0000000000116</c:v>
+                  <c:v>200.00000000000117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7433,64 +7430,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.2631578947368425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.882352941176471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.6923076923076916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9.0909090909090899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>11.111111111111109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>14.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>16.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>20.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>25.000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>33.333333333333378</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>50.000000000000121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>100.00000000000058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7528,64 +7525,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.2105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.7058823529411766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.1538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.2727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8.8888888888888875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>13.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>16.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>20.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>26.666666666666703</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>40.000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>80.000000000000455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8019,64 +8016,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.21052631578948</c:v>
+                  <c:v>8.4210526315789469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.888888888888886</c:v>
+                  <c:v>8.8888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.117647058823536</c:v>
+                  <c:v>9.4117647058823533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.66666666666667</c:v>
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114.28571428571429</c:v>
+                  <c:v>11.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123.07692307692307</c:v>
+                  <c:v>12.307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133.33333333333331</c:v>
+                  <c:v>13.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145.45454545454544</c:v>
+                  <c:v>14.545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>160</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>177.77777777777774</c:v>
+                  <c:v>17.777777777777775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>228.57142857142858</c:v>
+                  <c:v>22.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>266.66666666666674</c:v>
+                  <c:v>26.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>320.00000000000011</c:v>
+                  <c:v>32.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.00000000000028</c:v>
+                  <c:v>40.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>533.33333333333405</c:v>
+                  <c:v>53.333333333333407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>800.00000000000193</c:v>
+                  <c:v>80.000000000000199</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1600.0000000000093</c:v>
+                  <c:v>160.00000000000091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8183,64 +8180,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.26315789473685</c:v>
+                  <c:v>10.526315789473685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>11.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.64705882352942</c:v>
+                  <c:v>11.764705882352942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133.33333333333334</c:v>
+                  <c:v>13.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.85714285714286</c:v>
+                  <c:v>14.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.84615384615384</c:v>
+                  <c:v>15.384615384615383</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.66666666666663</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181.81818181818181</c:v>
+                  <c:v>18.18181818181818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>222.2222222222222</c:v>
+                  <c:v>22.222222222222218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>250</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>285.71428571428572</c:v>
+                  <c:v>28.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>333.33333333333343</c:v>
+                  <c:v>33.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400.00000000000017</c:v>
+                  <c:v>40.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>500.0000000000004</c:v>
+                  <c:v>50.000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>666.66666666666754</c:v>
+                  <c:v>66.666666666666757</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000.0000000000024</c:v>
+                  <c:v>100.00000000000024</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0000000000116</c:v>
+                  <c:v>200.00000000000117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8346,64 +8343,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.2631578947368425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.882352941176471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.6923076923076916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9.0909090909090899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>11.111111111111109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>14.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>16.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>20.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>25.000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>33.333333333333378</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>50.000000000000121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>100.00000000000058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8441,64 +8438,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.2105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.7058823529411766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.1538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.2727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8.8888888888888875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>13.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>16.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>20.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>26.666666666666703</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>40.000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>80.000000000000455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9000,64 +8997,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.36977777777777782</c:v>
+                  <c:v>1.1377777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35128888888888887</c:v>
+                  <c:v>1.080888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33280000000000004</c:v>
+                  <c:v>1.0239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3143111111111111</c:v>
+                  <c:v>0.96711111111111103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29582222222222221</c:v>
+                  <c:v>0.91022222222222227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27733333333333332</c:v>
+                  <c:v>0.85333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25884444444444443</c:v>
+                  <c:v>0.7964444444444444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24035555555555557</c:v>
+                  <c:v>0.73955555555555563</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22186666666666671</c:v>
+                  <c:v>0.68266666666666675</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2033777777777778</c:v>
+                  <c:v>0.62577777777777788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18488888888888891</c:v>
+                  <c:v>0.56888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16640000000000002</c:v>
+                  <c:v>0.51200000000000012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1479111111111111</c:v>
+                  <c:v>0.45511111111111113</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12942222222222222</c:v>
+                  <c:v>0.3982222222222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1109333333333333</c:v>
+                  <c:v>0.34133333333333327</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.2444444444444412E-2</c:v>
+                  <c:v>0.28444444444444433</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3955555555555511E-2</c:v>
+                  <c:v>0.22755555555555537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5466666666666588E-2</c:v>
+                  <c:v>0.17066666666666644</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6977777777777693E-2</c:v>
+                  <c:v>0.11377777777777751</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8488888888888784E-2</c:v>
+                  <c:v>5.6888888888888565E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9164,64 +9161,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.29582222222222221</c:v>
+                  <c:v>0.91022222222222227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28103111111111106</c:v>
+                  <c:v>0.86471111111111099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26623999999999998</c:v>
+                  <c:v>0.81919999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25144888888888883</c:v>
+                  <c:v>0.77368888888888887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23665777777777777</c:v>
+                  <c:v>0.72817777777777781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22186666666666666</c:v>
+                  <c:v>0.68266666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20707555555555554</c:v>
+                  <c:v>0.63715555555555548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19228444444444445</c:v>
+                  <c:v>0.59164444444444442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17749333333333336</c:v>
+                  <c:v>0.54613333333333347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16270222222222225</c:v>
+                  <c:v>0.5006222222222223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1479111111111111</c:v>
+                  <c:v>0.45511111111111113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13312000000000002</c:v>
+                  <c:v>0.40960000000000013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11832888888888889</c:v>
+                  <c:v>0.36408888888888891</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10353777777777777</c:v>
+                  <c:v>0.31857777777777774</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.874666666666664E-2</c:v>
+                  <c:v>0.27306666666666657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3955555555555524E-2</c:v>
+                  <c:v>0.22755555555555548</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9164444444444395E-2</c:v>
+                  <c:v>0.18204444444444431</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4373333333333279E-2</c:v>
+                  <c:v>0.13653333333333315</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9582222222222149E-2</c:v>
+                  <c:v>9.1022222222222005E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4791111111111026E-2</c:v>
+                  <c:v>4.5511111111110843E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9329,64 +9326,64 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.8204444444444445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.729422222222222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6383999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.5473777777777777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4563555555555556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.3653333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.274311111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.1832888888888888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0922666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0012444444444446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.91022222222222227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.81920000000000026</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.72817777777777781</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.63715555555555548</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.54613333333333314</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.45511111111111097</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.36408888888888863</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.27306666666666629</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.18204444444444401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>9.1022222222221685E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9495,64 +9492,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.2755555555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.161777777777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.0479999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9342222222222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.8204444444444445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7066666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.5928888888888888</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.4791111111111113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.3653333333333335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.2515555555555558</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.1377777777777778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.0240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.91022222222222227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.7964444444444444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.68266666666666653</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.56888888888888867</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.45511111111111074</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.34133333333333288</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.22755555555555501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.11377777777777713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10050,64 +10047,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>140.625</c:v>
+                  <c:v>7.03125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.0263157894737</c:v>
+                  <c:v>7.4013157894736841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.25</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>165.44117647058826</c:v>
+                  <c:v>8.2720588235294112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>175.78125</c:v>
+                  <c:v>8.7890625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.5</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.89285714285717</c:v>
+                  <c:v>10.044642857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>216.34615384615381</c:v>
+                  <c:v>10.817307692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234.37499999999997</c:v>
+                  <c:v>11.71875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>255.68181818181816</c:v>
+                  <c:v>12.78409090909091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>281.25</c:v>
+                  <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>312.5</c:v>
+                  <c:v>15.624999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>351.5625</c:v>
+                  <c:v>17.578125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>401.78571428571433</c:v>
+                  <c:v>20.089285714285715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>468.75000000000011</c:v>
+                  <c:v>23.437500000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>562.50000000000023</c:v>
+                  <c:v>28.125000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>703.12500000000045</c:v>
+                  <c:v>35.156250000000021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>937.50000000000136</c:v>
+                  <c:v>46.875000000000064</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1406.2500000000036</c:v>
+                  <c:v>70.312500000000171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2812.5000000000164</c:v>
+                  <c:v>140.6250000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10214,64 +10211,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1054.6875</c:v>
+                  <c:v>52.734375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1110.1973684210527</c:v>
+                  <c:v>55.509868421052637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1171.875</c:v>
+                  <c:v>58.59375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1240.8088235294117</c:v>
+                  <c:v>62.040441176470594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1318.359375</c:v>
+                  <c:v>65.91796875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1406.2500000000002</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1506.6964285714287</c:v>
+                  <c:v>75.334821428571445</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1622.5961538461538</c:v>
+                  <c:v>81.129807692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1757.8124999999995</c:v>
+                  <c:v>87.890624999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1917.613636363636</c:v>
+                  <c:v>95.880681818181813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2109.375</c:v>
+                  <c:v>105.46875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2343.7499999999995</c:v>
+                  <c:v>117.18749999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2636.71875</c:v>
+                  <c:v>131.8359375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3013.3928571428573</c:v>
+                  <c:v>150.66964285714289</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3515.6250000000009</c:v>
+                  <c:v>175.78125000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4218.7500000000018</c:v>
+                  <c:v>210.93750000000009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5273.4375000000036</c:v>
+                  <c:v>263.67187500000017</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7031.2500000000091</c:v>
+                  <c:v>351.56250000000045</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10546.875000000025</c:v>
+                  <c:v>527.34375000000125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21093.750000000124</c:v>
+                  <c:v>1054.6875000000061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10377,64 +10374,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>26.3671875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>27.754934210526319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29.296875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>31.020220588235297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32.958984375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>35.15625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>37.667410714285722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>40.564903846153847</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>43.945312499999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>47.940340909090907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>52.734375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>58.593749999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>65.91796875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>75.334821428571445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>87.890625000000028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>105.46875000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>131.83593750000009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>175.78125000000023</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>263.67187500000063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>527.34375000000307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10541,64 +10538,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.515625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.700657894736842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.90625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.1360294117647056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.39453125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.0223214285714288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.4086538461538467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.859375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.392045454545455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.03125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7.8124999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8.7890625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>10.044642857142858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>11.718750000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>14.062500000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>17.578125000000011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>23.437500000000032</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>35.156250000000085</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>70.312500000000398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11024,64 +11021,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11201,64 +11198,64 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.78947368421052</c:v>
+                  <c:v>73.684210526315795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>77.777777777777771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>352.94117647058823</c:v>
+                  <c:v>82.352941176470594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>93.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>428.57142857142861</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>461.53846153846155</c:v>
+                  <c:v>107.69230769230769</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>499.99999999999994</c:v>
+                  <c:v>116.66666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>545.45454545454538</c:v>
+                  <c:v>127.27272727272727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>666.66666666666652</c:v>
+                  <c:v>155.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>750</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>857.14285714285722</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1000.0000000000002</c:v>
+                  <c:v>233.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1200.0000000000005</c:v>
+                  <c:v>280.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1500.0000000000011</c:v>
+                  <c:v>350.00000000000028</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2000.0000000000027</c:v>
+                  <c:v>466.66666666666731</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3000.0000000000073</c:v>
+                  <c:v>700.00000000000171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6000.0000000000346</c:v>
+                  <c:v>1400.0000000000082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18234,7 +18231,7 @@
   <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18375,7 +18372,7 @@
       </c>
       <c r="C4" s="177"/>
       <c r="D4" s="158">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -18554,7 +18551,7 @@
       </c>
       <c r="D8" s="160">
         <f>D4/(1-B8)</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E8" s="146">
         <f>D5-(D5*B8)</f>
@@ -18566,7 +18563,7 @@
       </c>
       <c r="G8" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="14"/>
@@ -18606,11 +18603,11 @@
       </c>
       <c r="C9" s="142">
         <f>D9/D4</f>
-        <v>1.0526315789473684</v>
+        <v>1.0526315789473686</v>
       </c>
       <c r="D9" s="161">
         <f>D4/(1-B9)</f>
-        <v>315.78947368421052</v>
+        <v>73.684210526315795</v>
       </c>
       <c r="E9" s="143">
         <f>D5-(D5*B9)</f>
@@ -18622,12 +18619,12 @@
       </c>
       <c r="G9" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="179" t="str">
         <f>"Logical Storage Capacity for a " &amp; D4 &amp; " TiB Physical Volume"</f>
-        <v>Logical Storage Capacity for a 300 TiB Physical Volume</v>
+        <v>Logical Storage Capacity for a 70 TiB Physical Volume</v>
       </c>
       <c r="J9" s="179"/>
       <c r="K9" s="179"/>
@@ -18637,7 +18634,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="168" t="str">
         <f>"Physical Storage Used for " &amp; 'Storage Efficiency'!D5 &amp; " TiB Data in a " &amp; 'Storage Efficiency'!D4 &amp; " TiB volume"</f>
-        <v>Physical Storage Used for 50 TiB Data in a 300 TiB volume</v>
+        <v>Physical Storage Used for 50 TiB Data in a 70 TiB volume</v>
       </c>
       <c r="Q9" s="168"/>
       <c r="R9" s="168"/>
@@ -18672,7 +18669,7 @@
       </c>
       <c r="D10" s="162">
         <f>D4/(1-B10)</f>
-        <v>333.33333333333331</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="E10" s="45">
         <f>D5-(D5*B10)</f>
@@ -18684,7 +18681,7 @@
       </c>
       <c r="G10" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -18728,7 +18725,7 @@
       </c>
       <c r="D11" s="162">
         <f>D4/(1-B11)</f>
-        <v>352.94117647058823</v>
+        <v>82.352941176470594</v>
       </c>
       <c r="E11" s="45">
         <f>D5-(D5*B11)</f>
@@ -18740,7 +18737,7 @@
       </c>
       <c r="G11" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -18784,7 +18781,7 @@
       </c>
       <c r="D12" s="162">
         <f>D4/(1-B12)</f>
-        <v>375</v>
+        <v>87.5</v>
       </c>
       <c r="E12" s="45">
         <f>D5-(D5*B12)</f>
@@ -18796,7 +18793,7 @@
       </c>
       <c r="G12" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -18840,7 +18837,7 @@
       </c>
       <c r="D13" s="162">
         <f>D4/(1-B13)</f>
-        <v>400</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E13" s="45">
         <f>D5-(D5*B13)</f>
@@ -18852,7 +18849,7 @@
       </c>
       <c r="G13" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -18896,7 +18893,7 @@
       </c>
       <c r="D14" s="162">
         <f>D4/(1-B14)</f>
-        <v>428.57142857142861</v>
+        <v>100</v>
       </c>
       <c r="E14" s="45">
         <f>D5-(D5*B14)</f>
@@ -18908,7 +18905,7 @@
       </c>
       <c r="G14" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -18952,7 +18949,7 @@
       </c>
       <c r="D15" s="162">
         <f>D4/(1-B15)</f>
-        <v>461.53846153846155</v>
+        <v>107.69230769230769</v>
       </c>
       <c r="E15" s="45">
         <f>D5-(D5*B15)</f>
@@ -18964,7 +18961,7 @@
       </c>
       <c r="G15" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -19004,11 +19001,11 @@
       </c>
       <c r="C16" s="23">
         <f>D16/D4</f>
-        <v>1.6666666666666665</v>
+        <v>1.6666666666666663</v>
       </c>
       <c r="D16" s="162">
         <f>D4/(1-B16)</f>
-        <v>499.99999999999994</v>
+        <v>116.66666666666664</v>
       </c>
       <c r="E16" s="45">
         <f>D5-(D5*B16)</f>
@@ -19020,7 +19017,7 @@
       </c>
       <c r="G16" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -19060,11 +19057,11 @@
       </c>
       <c r="C17" s="23">
         <f>D17/D4</f>
-        <v>1.8181818181818179</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="D17" s="162">
         <f>D4/(1-B17)</f>
-        <v>545.45454545454538</v>
+        <v>127.27272727272727</v>
       </c>
       <c r="E17" s="45">
         <f>D5-(D5*B17)</f>
@@ -19076,7 +19073,7 @@
       </c>
       <c r="G17" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="26"/>
@@ -19120,7 +19117,7 @@
       </c>
       <c r="D18" s="162">
         <f>D4/(1-B18)</f>
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="E18" s="45">
         <f>D5-(D5*B18)</f>
@@ -19132,7 +19129,7 @@
       </c>
       <c r="G18" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -19176,7 +19173,7 @@
       </c>
       <c r="D19" s="162">
         <f>D4/(1-B19)</f>
-        <v>666.66666666666652</v>
+        <v>155.55555555555554</v>
       </c>
       <c r="E19" s="45">
         <f>D5-(D5*B19)</f>
@@ -19188,7 +19185,7 @@
       </c>
       <c r="G19" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -19232,7 +19229,7 @@
       </c>
       <c r="D20" s="162">
         <f>D4/(1-B20)</f>
-        <v>750</v>
+        <v>175</v>
       </c>
       <c r="E20" s="45">
         <f>D5-(D5*B20)</f>
@@ -19244,7 +19241,7 @@
       </c>
       <c r="G20" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -19288,7 +19285,7 @@
       </c>
       <c r="D21" s="162">
         <f>D4/(1-B21)</f>
-        <v>857.14285714285722</v>
+        <v>200</v>
       </c>
       <c r="E21" s="45">
         <f>D5-(D5*B21)</f>
@@ -19300,7 +19297,7 @@
       </c>
       <c r="G21" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -19344,7 +19341,7 @@
       </c>
       <c r="D22" s="162">
         <f>D4/(1-B22)</f>
-        <v>1000.0000000000002</v>
+        <v>233.33333333333337</v>
       </c>
       <c r="E22" s="45">
         <f>D5-(D5*B22)</f>
@@ -19356,7 +19353,7 @@
       </c>
       <c r="G22" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -19400,7 +19397,7 @@
       </c>
       <c r="D23" s="162">
         <f>D4/(1-B23)</f>
-        <v>1200.0000000000005</v>
+        <v>280.00000000000011</v>
       </c>
       <c r="E23" s="45">
         <f>D5-(D5*B23)</f>
@@ -19412,7 +19409,7 @@
       </c>
       <c r="G23" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -19452,11 +19449,11 @@
       </c>
       <c r="C24" s="23">
         <f>D24/D4</f>
-        <v>5.0000000000000036</v>
+        <v>5.0000000000000044</v>
       </c>
       <c r="D24" s="162">
         <f>D4/(1-B24)</f>
-        <v>1500.0000000000011</v>
+        <v>350.00000000000028</v>
       </c>
       <c r="E24" s="45">
         <f>D5-(D5*B24)</f>
@@ -19468,7 +19465,7 @@
       </c>
       <c r="G24" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -19512,7 +19509,7 @@
       </c>
       <c r="D25" s="162">
         <f>D4/(1-B25)</f>
-        <v>2000.0000000000027</v>
+        <v>466.66666666666731</v>
       </c>
       <c r="E25" s="45">
         <f>D5-(D5*B25)</f>
@@ -19524,7 +19521,7 @@
       </c>
       <c r="G25" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -19568,7 +19565,7 @@
       </c>
       <c r="D26" s="162">
         <f>D4/(1-B26)</f>
-        <v>3000.0000000000073</v>
+        <v>700.00000000000171</v>
       </c>
       <c r="E26" s="45">
         <f>D5-(D5*B26)</f>
@@ -19580,7 +19577,7 @@
       </c>
       <c r="G26" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H26" s="169"/>
       <c r="I26" s="169"/>
@@ -19620,11 +19617,11 @@
       </c>
       <c r="C27" s="23">
         <f>D27/D4</f>
-        <v>20.000000000000114</v>
+        <v>20.000000000000117</v>
       </c>
       <c r="D27" s="162">
         <f>D4/(1-B27)</f>
-        <v>6000.0000000000346</v>
+        <v>1400.0000000000082</v>
       </c>
       <c r="E27" s="45">
         <f>D5-(D5*B27)</f>
@@ -19636,7 +19633,7 @@
       </c>
       <c r="G27" s="20">
         <f>D4</f>
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -19681,7 +19678,7 @@
       </c>
       <c r="D28" s="164">
         <f>D4/(1-B28)</f>
-        <v>11999.999999999989</v>
+        <v>2799.9999999999977</v>
       </c>
       <c r="E28" s="164">
         <f>IF((D5-(D5*B28))&gt;D4, ("&gt; " &amp; D4 ),D5-(D5*B28))</f>
@@ -19970,9 +19967,7 @@
     </row>
     <row r="35" spans="1:36" s="3" customFormat="1">
       <c r="A35" s="29"/>
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="10"/>
       <c r="D35" s="1"/>
       <c r="E35" s="10"/>
@@ -20304,7 +20299,7 @@
       <c r="J45" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U0alCxm5xNbA/WMrtELNSlmiOjmvcBMs1uW7OaZo3oCgJ7RZbHFQWshi9gs5Se/1IqhFlh3qnvZ+sGmC3gWHtQ==" saltValue="Fg+gtOKamT+beHm68bAk/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="X6:Z6"/>
     <mergeCell ref="B5:C5"/>
@@ -20348,7 +20343,7 @@
   <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20429,7 +20424,7 @@
       <c r="O2" s="103"/>
       <c r="P2" s="192" t="str">
         <f>"Logical Throughput (Gbps) on a " &amp; D4 &amp;" Gbps physical link"</f>
-        <v>Logical Throughput (Gbps) on a 100 Gbps physical link</v>
+        <v>Logical Throughput (Gbps) on a 10 Gbps physical link</v>
       </c>
       <c r="Q2" s="192"/>
       <c r="R2" s="192"/>
@@ -20441,7 +20436,7 @@
       <c r="X2" s="61"/>
       <c r="Y2" s="187" t="str">
         <f>"Time to  logically transfer " &amp; D7 &amp; " TiB  on a " &amp; D4 &amp; " Gps link"</f>
-        <v>Time to  logically transfer 13 TiB  on a 100 Gps link</v>
+        <v>Time to  logically transfer 4 TiB  on a 10 Gps link</v>
       </c>
       <c r="Z2" s="187"/>
       <c r="AA2" s="187"/>
@@ -20472,7 +20467,7 @@
       <c r="O3" s="106"/>
       <c r="P3" s="181" t="str">
         <f>IF(D6&gt;0,("At " &amp; D5 &amp;" % usable throughput, throttled to " &amp; D6 &amp; " Gbps"),("At " &amp; D5 &amp;" % usable throughput, not throttled"))</f>
-        <v>At 80 % usable throughput, not throttled</v>
+        <v>At 80 % usable throughput, throttled to 5 Gbps</v>
       </c>
       <c r="Q3" s="181"/>
       <c r="R3" s="181"/>
@@ -20484,7 +20479,7 @@
       <c r="X3" s="61"/>
       <c r="Y3" s="182" t="str">
         <f>"At " &amp; D5 &amp;" % usable throughput, throttled to " &amp; D6 &amp; " Gbps"</f>
-        <v>At 80 % usable throughput, throttled to 0 Gbps</v>
+        <v>At 80 % usable throughput, throttled to 5 Gbps</v>
       </c>
       <c r="Z3" s="182"/>
       <c r="AA3" s="182"/>
@@ -20502,7 +20497,7 @@
       </c>
       <c r="C4" s="200"/>
       <c r="D4" s="37">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E4" s="64" t="s">
         <v>29</v>
@@ -20549,7 +20544,7 @@
       </c>
       <c r="E5" s="188" t="str">
         <f>IF(E31&lt;&gt;"-",IF(E31&gt;J31,(" Throttle throughput exceeds usable bandwidth of "&amp;(D4*(D5/100))&amp;" Gbps")," Maximum usable before throttling is "&amp;D4*(D5/100)&amp;" Gbps"),"")</f>
-        <v/>
+        <v xml:space="preserve"> Maximum usable before throttling is 8 Gbps</v>
       </c>
       <c r="F5" s="189"/>
       <c r="G5" s="189"/>
@@ -20587,7 +20582,7 @@
       </c>
       <c r="C6" s="202"/>
       <c r="D6" s="56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="165" t="str">
         <f>IF(D4&lt;D6," Link speed exceeded"," Appliication Throttling - set to 0 for no throttling")</f>
@@ -20629,7 +20624,7 @@
       </c>
       <c r="C7" s="198"/>
       <c r="D7" s="57">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E7" s="185" t="s">
         <v>31</v>
@@ -20670,7 +20665,7 @@
       </c>
       <c r="C8" s="194"/>
       <c r="D8" s="58">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E8" s="185" t="s">
         <v>30</v>
@@ -20749,12 +20744,12 @@
       <c r="E10" s="195"/>
       <c r="F10" s="38" t="str">
         <f>"Time to transfer " &amp; D7 &amp; "  TiB  (hrs)"</f>
-        <v>Time to transfer 13  TiB  (hrs)</v>
+        <v>Time to transfer 4  TiB  (hrs)</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="190" t="str">
         <f xml:space="preserve"> "Data transferred in " &amp; D8 &amp;  " hrs  (TiB)"</f>
-        <v>Data transferred in 24 hrs  (TiB)</v>
+        <v>Data transferred in 12 hrs  (TiB)</v>
       </c>
       <c r="I10" s="191"/>
       <c r="J10" s="73"/>
@@ -20792,27 +20787,27 @@
       </c>
       <c r="D11" s="128" t="str">
         <f>D4 &amp; " Gbps Physical Link"</f>
-        <v>100 Gbps Physical Link</v>
+        <v>10 Gbps Physical Link</v>
       </c>
       <c r="E11" s="129" t="str">
         <f>IF(D6&gt;0,("Throttled to   " &amp; D6 &amp; " Gbps"),("Not       throttled"))</f>
-        <v>Not       throttled</v>
+        <v>Throttled to   5 Gbps</v>
       </c>
       <c r="F11" s="130" t="str">
         <f>D4 &amp; " Gbps Physical Link"</f>
-        <v>100 Gbps Physical Link</v>
+        <v>10 Gbps Physical Link</v>
       </c>
       <c r="G11" s="131" t="str">
         <f>IF(D6&gt;0,("Throttled to   " &amp; D6 &amp; " Gbps"),("Not         throttled"))</f>
-        <v>Not         throttled</v>
+        <v>Throttled to   5 Gbps</v>
       </c>
       <c r="H11" s="132" t="str">
         <f>D4 &amp; " Gbps Physical Link"</f>
-        <v>100 Gbps Physical Link</v>
+        <v>10 Gbps Physical Link</v>
       </c>
       <c r="I11" s="133" t="str">
         <f>IF(D6&gt;0,("Throttled to         " &amp; D6 &amp; " Gbps"),("Not      throttled"))</f>
-        <v>Not      throttled</v>
+        <v>Throttled to         5 Gbps</v>
       </c>
       <c r="J11" s="78" t="s">
         <v>19</v>
@@ -20860,51 +20855,51 @@
       </c>
       <c r="D12" s="149">
         <f>D4/(1-B12)</f>
-        <v>100</v>
-      </c>
-      <c r="E12" s="150" t="str">
+        <v>10</v>
+      </c>
+      <c r="E12" s="150">
         <f>IF(D6=0,"-",D6/(1-B12))</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="F12" s="151">
         <f>((D7*1024)/(D12/8))/3600</f>
-        <v>0.29582222222222221</v>
-      </c>
-      <c r="G12" s="152" t="str">
+        <v>0.91022222222222227</v>
+      </c>
+      <c r="G12" s="152">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E12/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.8204444444444445</v>
       </c>
       <c r="H12" s="153">
         <f>((D12/8)*3600*($D$8))/1024</f>
-        <v>1054.6875</v>
-      </c>
-      <c r="I12" s="154" t="str">
+        <v>52.734375</v>
+      </c>
+      <c r="I12" s="154">
         <f>IF($D$6=0,"-",((E12/8)*3600*$D$8)/1024)</f>
-        <v>-</v>
+        <v>26.3671875</v>
       </c>
       <c r="J12" s="155">
         <f>(D4*(D5/100))/(1-B12)</f>
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="K12" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B12))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J12/8))/3600,0)</f>
-        <v>0.36977777777777782</v>
+        <v>1.1377777777777778</v>
       </c>
       <c r="M12" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K12)/8))/3600),0)</f>
-        <v>0</v>
+        <v>2.2755555555555556</v>
       </c>
       <c r="N12" s="80">
         <f>((J12/8)*36000*(D8/60))/1024</f>
-        <v>140.625</v>
+        <v>7.03125</v>
       </c>
       <c r="O12" s="80">
         <f>IF(D4&lt;D6,0,((K12/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>3.515625</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="61"/>
@@ -20937,51 +20932,51 @@
       </c>
       <c r="D13" s="125">
         <f>D4/(1-B13)</f>
-        <v>105.26315789473685</v>
-      </c>
-      <c r="E13" s="83" t="str">
+        <v>10.526315789473685</v>
+      </c>
+      <c r="E13" s="83">
         <f>IF(D6=0,"-",D6/(1-B13))</f>
-        <v>-</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="F13" s="84">
         <f>((D7*1024)/(D13/8))/3600</f>
-        <v>0.28103111111111106</v>
-      </c>
-      <c r="G13" s="85" t="str">
+        <v>0.86471111111111099</v>
+      </c>
+      <c r="G13" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E13/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.729422222222222</v>
       </c>
       <c r="H13" s="114">
         <f t="shared" ref="H13:H31" si="0">((D13/8)*3600*($D$8))/1024</f>
-        <v>1110.1973684210527</v>
-      </c>
-      <c r="I13" s="123" t="str">
+        <v>55.509868421052637</v>
+      </c>
+      <c r="I13" s="123">
         <f t="shared" ref="I13:I31" si="1">IF($D$6=0,"-",((E13/8)*3600*$D$8)/1024)</f>
-        <v>-</v>
+        <v>27.754934210526319</v>
       </c>
       <c r="J13" s="81">
         <f>(D4*(D5/100))/(1-B13)</f>
-        <v>84.21052631578948</v>
+        <v>8.4210526315789469</v>
       </c>
       <c r="K13" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B13))</f>
-        <v>0</v>
+        <v>4.2105263157894735</v>
       </c>
       <c r="L13" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J13/8))/3600,0)</f>
-        <v>0.35128888888888887</v>
+        <v>1.080888888888889</v>
       </c>
       <c r="M13" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K13)/8))/3600),0)</f>
-        <v>0</v>
+        <v>2.161777777777778</v>
       </c>
       <c r="N13" s="80">
         <f>((J13/8)*36000*(D8/60))/1024</f>
-        <v>148.0263157894737</v>
+        <v>7.4013157894736841</v>
       </c>
       <c r="O13" s="80">
         <f>IF(D4&lt;D6,0,((K13/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>3.700657894736842</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="61"/>
@@ -21014,51 +21009,51 @@
       </c>
       <c r="D14" s="82">
         <f>D4/(1-B14)</f>
-        <v>111.11111111111111</v>
-      </c>
-      <c r="E14" s="83" t="str">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E14" s="83">
         <f>IF(D6=0,"-",D6/(1-B14))</f>
-        <v>-</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F14" s="84">
         <f>((D7*1024)/(D14/8))/3600</f>
-        <v>0.26623999999999998</v>
-      </c>
-      <c r="G14" s="85" t="str">
+        <v>0.81919999999999993</v>
+      </c>
+      <c r="G14" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E14/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.6383999999999999</v>
       </c>
       <c r="H14" s="114">
         <f t="shared" si="0"/>
-        <v>1171.875</v>
-      </c>
-      <c r="I14" s="123" t="str">
+        <v>58.59375</v>
+      </c>
+      <c r="I14" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>29.296875</v>
       </c>
       <c r="J14" s="81">
         <f>(D4*(D5/100))/(1-B14)</f>
-        <v>88.888888888888886</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="K14" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B14))</f>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="L14" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J14/8))/3600,0)</f>
-        <v>0.33280000000000004</v>
+        <v>1.0239999999999998</v>
       </c>
       <c r="M14" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K14)/8))/3600),0)</f>
-        <v>0</v>
+        <v>2.0479999999999996</v>
       </c>
       <c r="N14" s="80">
         <f>((J14/8)*36000*(D8/60))/1024</f>
-        <v>156.25</v>
+        <v>7.8125</v>
       </c>
       <c r="O14" s="80">
         <f>IF(D4&lt;D6,0,((K14/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>3.90625</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="61"/>
@@ -21091,51 +21086,51 @@
       </c>
       <c r="D15" s="82">
         <f>D4/(1-B15)</f>
-        <v>117.64705882352942</v>
-      </c>
-      <c r="E15" s="83" t="str">
+        <v>11.764705882352942</v>
+      </c>
+      <c r="E15" s="83">
         <f>IF(D6=0,"-",D6/(1-B15))</f>
-        <v>-</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="F15" s="84">
         <f>((D7*1024)/(D15/8))/3600</f>
-        <v>0.25144888888888883</v>
-      </c>
-      <c r="G15" s="85" t="str">
+        <v>0.77368888888888887</v>
+      </c>
+      <c r="G15" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E15/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.5473777777777777</v>
       </c>
       <c r="H15" s="114">
         <f t="shared" si="0"/>
-        <v>1240.8088235294117</v>
-      </c>
-      <c r="I15" s="123" t="str">
+        <v>62.040441176470594</v>
+      </c>
+      <c r="I15" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>31.020220588235297</v>
       </c>
       <c r="J15" s="81">
         <f>(D4*(D5/100))/(1-B15)</f>
-        <v>94.117647058823536</v>
+        <v>9.4117647058823533</v>
       </c>
       <c r="K15" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B15))</f>
-        <v>0</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="L15" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J15/8))/3600,0)</f>
-        <v>0.3143111111111111</v>
+        <v>0.96711111111111103</v>
       </c>
       <c r="M15" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K15)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.9342222222222221</v>
       </c>
       <c r="N15" s="80">
         <f>((J15/8)*36000*(D8/60))/1024</f>
-        <v>165.44117647058826</v>
+        <v>8.2720588235294112</v>
       </c>
       <c r="O15" s="80">
         <f>IF(D4&lt;D6,0,((K15/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>4.1360294117647056</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="61"/>
@@ -21168,51 +21163,51 @@
       </c>
       <c r="D16" s="82">
         <f>D4/(1-B16)</f>
-        <v>125</v>
-      </c>
-      <c r="E16" s="83" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="E16" s="83">
         <f>IF(D6=0,"-",D6/(1-B16))</f>
-        <v>-</v>
+        <v>6.25</v>
       </c>
       <c r="F16" s="84">
         <f>((D7*1024)/(D16/8))/3600</f>
-        <v>0.23665777777777777</v>
-      </c>
-      <c r="G16" s="85" t="str">
+        <v>0.72817777777777781</v>
+      </c>
+      <c r="G16" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E16/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.4563555555555556</v>
       </c>
       <c r="H16" s="114">
         <f t="shared" si="0"/>
-        <v>1318.359375</v>
-      </c>
-      <c r="I16" s="123" t="str">
+        <v>65.91796875</v>
+      </c>
+      <c r="I16" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>32.958984375</v>
       </c>
       <c r="J16" s="81">
         <f>(D4*(D5/100))/(1-B16)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K16" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B16))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J16/8))/3600,0)</f>
-        <v>0.29582222222222221</v>
+        <v>0.91022222222222227</v>
       </c>
       <c r="M16" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K16)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.8204444444444445</v>
       </c>
       <c r="N16" s="80">
         <f>((J16/8)*36000*(D8/60))/1024</f>
-        <v>175.78125</v>
+        <v>8.7890625</v>
       </c>
       <c r="O16" s="80">
         <f>IF(D4&lt;D6,0,((K16/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>4.39453125</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="61"/>
@@ -21245,51 +21240,51 @@
       </c>
       <c r="D17" s="82">
         <f>D4/(1-B17)</f>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="E17" s="83" t="str">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="E17" s="83">
         <f>IF(D6=0,"-",D6/(1-B17))</f>
-        <v>-</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F17" s="84">
         <f>((D7*1024)/(D17/8))/3600</f>
-        <v>0.22186666666666666</v>
-      </c>
-      <c r="G17" s="85" t="str">
+        <v>0.68266666666666664</v>
+      </c>
+      <c r="G17" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E17/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.3653333333333333</v>
       </c>
       <c r="H17" s="114">
         <f t="shared" si="0"/>
-        <v>1406.2500000000002</v>
-      </c>
-      <c r="I17" s="123" t="str">
+        <v>70.3125</v>
+      </c>
+      <c r="I17" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>35.15625</v>
       </c>
       <c r="J17" s="81">
         <f>(D4*(D5/100))/(1-B17)</f>
-        <v>106.66666666666667</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="K17" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B17))</f>
-        <v>0</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="L17" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J17/8))/3600,0)</f>
-        <v>0.27733333333333332</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="M17" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K17)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.7066666666666668</v>
       </c>
       <c r="N17" s="80">
         <f>((J17/8)*36000*(D8/60))/1024</f>
-        <v>187.5</v>
+        <v>9.375</v>
       </c>
       <c r="O17" s="80">
         <f>IF(D4&lt;D6,0,((K17/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>4.6875</v>
       </c>
       <c r="P17" s="101"/>
       <c r="Q17" s="61"/>
@@ -21322,51 +21317,51 @@
       </c>
       <c r="D18" s="82">
         <f>D4/(1-B18)</f>
-        <v>142.85714285714286</v>
-      </c>
-      <c r="E18" s="83" t="str">
+        <v>14.285714285714286</v>
+      </c>
+      <c r="E18" s="83">
         <f>IF(D6=0,"-",D6/(1-B18))</f>
-        <v>-</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="F18" s="84">
         <f>((D7*1024)/(D18/8))/3600</f>
-        <v>0.20707555555555554</v>
-      </c>
-      <c r="G18" s="85" t="str">
+        <v>0.63715555555555548</v>
+      </c>
+      <c r="G18" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E18/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.274311111111111</v>
       </c>
       <c r="H18" s="114">
         <f t="shared" si="0"/>
-        <v>1506.6964285714287</v>
-      </c>
-      <c r="I18" s="123" t="str">
+        <v>75.334821428571445</v>
+      </c>
+      <c r="I18" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>37.667410714285722</v>
       </c>
       <c r="J18" s="81">
         <f>(D4*(D5/100))/(1-B18)</f>
-        <v>114.28571428571429</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="K18" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B18))</f>
-        <v>0</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="L18" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J18/8))/3600,0)</f>
-        <v>0.25884444444444443</v>
+        <v>0.7964444444444444</v>
       </c>
       <c r="M18" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K18)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.5928888888888888</v>
       </c>
       <c r="N18" s="80">
         <f>((J18/8)*36000*(D8/60))/1024</f>
-        <v>200.89285714285717</v>
+        <v>10.044642857142858</v>
       </c>
       <c r="O18" s="80">
         <f>IF(D4&lt;D6,0,((K18/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>5.0223214285714288</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="61"/>
@@ -21399,55 +21394,55 @@
       </c>
       <c r="D19" s="82">
         <f>D4/(1-B19)</f>
-        <v>153.84615384615384</v>
-      </c>
-      <c r="E19" s="83" t="str">
+        <v>15.384615384615383</v>
+      </c>
+      <c r="E19" s="83">
         <f>IF(D6=0,"-",D6/(1-B19))</f>
-        <v>-</v>
+        <v>7.6923076923076916</v>
       </c>
       <c r="F19" s="84">
         <f>((D7*1024)/(D19/8))/3600</f>
-        <v>0.19228444444444445</v>
-      </c>
-      <c r="G19" s="85" t="str">
+        <v>0.59164444444444442</v>
+      </c>
+      <c r="G19" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E19/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.1832888888888888</v>
       </c>
       <c r="H19" s="114">
         <f t="shared" si="0"/>
-        <v>1622.5961538461538</v>
-      </c>
-      <c r="I19" s="123" t="str">
+        <v>81.129807692307693</v>
+      </c>
+      <c r="I19" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>40.564903846153847</v>
       </c>
       <c r="J19" s="81">
         <f>(D4*(D5/100))/(1-B19)</f>
-        <v>123.07692307692307</v>
+        <v>12.307692307692307</v>
       </c>
       <c r="K19" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B19))</f>
-        <v>0</v>
+        <v>6.1538461538461533</v>
       </c>
       <c r="L19" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J19/8))/3600,0)</f>
-        <v>0.24035555555555557</v>
+        <v>0.73955555555555563</v>
       </c>
       <c r="M19" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K19)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.4791111111111113</v>
       </c>
       <c r="N19" s="80">
         <f>((J19/8)*36000*(D8/60))/1024</f>
-        <v>216.34615384615381</v>
+        <v>10.817307692307693</v>
       </c>
       <c r="O19" s="80">
         <f>IF(D4&lt;D6,0,((K19/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>5.4086538461538467</v>
       </c>
       <c r="P19" s="183" t="str">
         <f>"Logical Data Transferred in " &amp; D8 &amp; " hours on a " &amp; D4 &amp; " Gps link"</f>
-        <v>Logical Data Transferred in 24 hours on a 100 Gps link</v>
+        <v>Logical Data Transferred in 12 hours on a 10 Gps link</v>
       </c>
       <c r="Q19" s="183"/>
       <c r="R19" s="183"/>
@@ -21475,59 +21470,59 @@
       </c>
       <c r="C20" s="142">
         <f>D20/D4</f>
-        <v>1.6666666666666663</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="D20" s="82">
         <f>D4/(1-B20)</f>
-        <v>166.66666666666663</v>
-      </c>
-      <c r="E20" s="83" t="str">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="E20" s="83">
         <f>IF(D6=0,"-",D6/(1-B20))</f>
-        <v>-</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="F20" s="84">
         <f>((D7*1024)/(D20/8))/3600</f>
-        <v>0.17749333333333336</v>
-      </c>
-      <c r="G20" s="85" t="str">
+        <v>0.54613333333333347</v>
+      </c>
+      <c r="G20" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E20/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.0922666666666669</v>
       </c>
       <c r="H20" s="114">
         <f t="shared" si="0"/>
-        <v>1757.8124999999995</v>
-      </c>
-      <c r="I20" s="123" t="str">
+        <v>87.890624999999986</v>
+      </c>
+      <c r="I20" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>43.945312499999993</v>
       </c>
       <c r="J20" s="81">
         <f>(D4*(D5/100))/(1-B20)</f>
-        <v>133.33333333333331</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="K20" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B20))</f>
-        <v>0</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="L20" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J20/8))/3600,0)</f>
-        <v>0.22186666666666671</v>
+        <v>0.68266666666666675</v>
       </c>
       <c r="M20" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K20)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.3653333333333335</v>
       </c>
       <c r="N20" s="80">
         <f>((J20/8)*36000*(D8/60))/1024</f>
-        <v>234.37499999999997</v>
+        <v>11.71875</v>
       </c>
       <c r="O20" s="80">
         <f>IF(D4&lt;D6,0,((K20/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>5.859375</v>
       </c>
       <c r="P20" s="180" t="str">
         <f>IF(D6&gt;0,("At " &amp; D5 &amp;" % usable throughput, throttled at " &amp; D6 &amp; " Gbps"),("At " &amp; D5 &amp;" % usable throughput, not throttled"))</f>
-        <v>At 80 % usable throughput, not throttled</v>
+        <v>At 80 % usable throughput, throttled at 5 Gbps</v>
       </c>
       <c r="Q20" s="180"/>
       <c r="R20" s="180"/>
@@ -21555,55 +21550,55 @@
       </c>
       <c r="C21" s="142">
         <f>D21/D4</f>
-        <v>1.8181818181818181</v>
+        <v>1.8181818181818179</v>
       </c>
       <c r="D21" s="82">
         <f>D4/(1-B21)</f>
-        <v>181.81818181818181</v>
-      </c>
-      <c r="E21" s="83" t="str">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="E21" s="83">
         <f>IF(D6=0,"-",D6/(1-B21))</f>
-        <v>-</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F21" s="84">
         <f>((D7*1024)/(D21/8))/3600</f>
-        <v>0.16270222222222225</v>
-      </c>
-      <c r="G21" s="85" t="str">
+        <v>0.5006222222222223</v>
+      </c>
+      <c r="G21" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E21/8))/3600),"-")</f>
-        <v>-</v>
+        <v>1.0012444444444446</v>
       </c>
       <c r="H21" s="114">
         <f t="shared" si="0"/>
-        <v>1917.613636363636</v>
-      </c>
-      <c r="I21" s="123" t="str">
+        <v>95.880681818181813</v>
+      </c>
+      <c r="I21" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>47.940340909090907</v>
       </c>
       <c r="J21" s="81">
         <f>(D4*(D5/100))/(1-B21)</f>
-        <v>145.45454545454544</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="K21" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B21))</f>
-        <v>0</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="L21" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J21/8))/3600,0)</f>
-        <v>0.2033777777777778</v>
+        <v>0.62577777777777788</v>
       </c>
       <c r="M21" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K21)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.2515555555555558</v>
       </c>
       <c r="N21" s="80">
         <f>((J21/8)*36000*(D8/60))/1024</f>
-        <v>255.68181818181816</v>
+        <v>12.78409090909091</v>
       </c>
       <c r="O21" s="80">
         <f>IF(D4&lt;D6,0,((K21/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>6.392045454545455</v>
       </c>
       <c r="P21" s="102"/>
       <c r="Q21" s="61"/>
@@ -21636,51 +21631,51 @@
       </c>
       <c r="D22" s="82">
         <f>D4/(1-B22)</f>
-        <v>200</v>
-      </c>
-      <c r="E22" s="83" t="str">
+        <v>20</v>
+      </c>
+      <c r="E22" s="83">
         <f>IF(D6=0,"-",D6/(1-B22))</f>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="F22" s="84">
         <f>((D7*1024)/(D22/8))/3600</f>
-        <v>0.1479111111111111</v>
-      </c>
-      <c r="G22" s="85" t="str">
+        <v>0.45511111111111113</v>
+      </c>
+      <c r="G22" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E22/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.91022222222222227</v>
       </c>
       <c r="H22" s="114">
         <f t="shared" si="0"/>
-        <v>2109.375</v>
-      </c>
-      <c r="I22" s="123" t="str">
+        <v>105.46875</v>
+      </c>
+      <c r="I22" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>52.734375</v>
       </c>
       <c r="J22" s="81">
         <f>(D4*(D5/100))/(1-B22)</f>
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="K22" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B22))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L22" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J22/8))/3600,0)</f>
-        <v>0.18488888888888891</v>
+        <v>0.56888888888888889</v>
       </c>
       <c r="M22" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K22)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.1377777777777778</v>
       </c>
       <c r="N22" s="80">
         <f>((J22/8)*36000*(D8/60))/1024</f>
-        <v>281.25</v>
+        <v>14.0625</v>
       </c>
       <c r="O22" s="80">
         <f>IF(D4&lt;D6,0,((K22/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>7.03125</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="61"/>
@@ -21713,51 +21708,51 @@
       </c>
       <c r="D23" s="82">
         <f>D4/(1-B23)</f>
-        <v>222.2222222222222</v>
-      </c>
-      <c r="E23" s="83" t="str">
+        <v>22.222222222222218</v>
+      </c>
+      <c r="E23" s="83">
         <f>IF(D6=0,"-",D6/(1-B23))</f>
-        <v>-</v>
+        <v>11.111111111111109</v>
       </c>
       <c r="F23" s="84">
         <f>((D7*1024)/(D23/8))/3600</f>
-        <v>0.13312000000000002</v>
-      </c>
-      <c r="G23" s="85" t="str">
+        <v>0.40960000000000013</v>
+      </c>
+      <c r="G23" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E23/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.81920000000000026</v>
       </c>
       <c r="H23" s="114">
         <f t="shared" si="0"/>
-        <v>2343.7499999999995</v>
-      </c>
-      <c r="I23" s="123" t="str">
+        <v>117.18749999999997</v>
+      </c>
+      <c r="I23" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>58.593749999999986</v>
       </c>
       <c r="J23" s="81">
         <f>(D4*(D5/100))/(1-B23)</f>
-        <v>177.77777777777774</v>
+        <v>17.777777777777775</v>
       </c>
       <c r="K23" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B23))</f>
-        <v>0</v>
+        <v>8.8888888888888875</v>
       </c>
       <c r="L23" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J23/8))/3600,0)</f>
-        <v>0.16640000000000002</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="M23" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K23)/8))/3600),0)</f>
-        <v>0</v>
+        <v>1.0240000000000002</v>
       </c>
       <c r="N23" s="80">
         <f>((J23/8)*36000*(D8/60))/1024</f>
-        <v>312.5</v>
+        <v>15.624999999999998</v>
       </c>
       <c r="O23" s="80">
         <f>IF(D4&lt;D6,0,((K23/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>7.8124999999999991</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="61"/>
@@ -21790,51 +21785,51 @@
       </c>
       <c r="D24" s="82">
         <f>D4/(1-B24)</f>
-        <v>250</v>
-      </c>
-      <c r="E24" s="83" t="str">
+        <v>25</v>
+      </c>
+      <c r="E24" s="83">
         <f>IF(D6=0,"-",D6/(1-B24))</f>
-        <v>-</v>
+        <v>12.5</v>
       </c>
       <c r="F24" s="84">
         <f>((D7*1024)/(D24/8))/3600</f>
-        <v>0.11832888888888889</v>
-      </c>
-      <c r="G24" s="85" t="str">
+        <v>0.36408888888888891</v>
+      </c>
+      <c r="G24" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E24/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.72817777777777781</v>
       </c>
       <c r="H24" s="114">
         <f t="shared" si="0"/>
-        <v>2636.71875</v>
-      </c>
-      <c r="I24" s="123" t="str">
+        <v>131.8359375</v>
+      </c>
+      <c r="I24" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>65.91796875</v>
       </c>
       <c r="J24" s="81">
         <f>(D4*(D5/100))/(1-B24)</f>
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="K24" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B24))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L24" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J24/8))/3600,0)</f>
-        <v>0.1479111111111111</v>
+        <v>0.45511111111111113</v>
       </c>
       <c r="M24" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K24)/8))/3600),0)</f>
-        <v>0</v>
+        <v>0.91022222222222227</v>
       </c>
       <c r="N24" s="80">
         <f>((J24/8)*36000*(D8/60))/1024</f>
-        <v>351.5625</v>
+        <v>17.578125</v>
       </c>
       <c r="O24" s="80">
         <f>IF(D4&lt;D6,0,((K24/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>8.7890625</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="61"/>
@@ -21867,51 +21862,51 @@
       </c>
       <c r="D25" s="82">
         <f>D4/(1-B25)</f>
-        <v>285.71428571428572</v>
-      </c>
-      <c r="E25" s="83" t="str">
+        <v>28.571428571428573</v>
+      </c>
+      <c r="E25" s="83">
         <f>IF(D6=0,"-",D6/(1-B25))</f>
-        <v>-</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="F25" s="84">
         <f>((D7*1024)/(D25/8))/3600</f>
-        <v>0.10353777777777777</v>
-      </c>
-      <c r="G25" s="85" t="str">
+        <v>0.31857777777777774</v>
+      </c>
+      <c r="G25" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E25/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.63715555555555548</v>
       </c>
       <c r="H25" s="114">
         <f t="shared" si="0"/>
-        <v>3013.3928571428573</v>
-      </c>
-      <c r="I25" s="123" t="str">
+        <v>150.66964285714289</v>
+      </c>
+      <c r="I25" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>75.334821428571445</v>
       </c>
       <c r="J25" s="81">
         <f>(D4*(D5/100))/(1-B25)</f>
-        <v>228.57142857142858</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="K25" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B25))</f>
-        <v>0</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="L25" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J25/8))/3600,0)</f>
-        <v>0.12942222222222222</v>
+        <v>0.3982222222222222</v>
       </c>
       <c r="M25" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K25)/8))/3600),0)</f>
-        <v>0</v>
+        <v>0.7964444444444444</v>
       </c>
       <c r="N25" s="80">
         <f>((J25/8)*36000*(D8/60))/1024</f>
-        <v>401.78571428571433</v>
+        <v>20.089285714285715</v>
       </c>
       <c r="O25" s="80">
         <f>IF(D4&lt;D6,0,((K25/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>10.044642857142858</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="61"/>
@@ -21944,51 +21939,51 @@
       </c>
       <c r="D26" s="82">
         <f>D4/(1-B26)</f>
-        <v>333.33333333333343</v>
-      </c>
-      <c r="E26" s="83" t="str">
+        <v>33.333333333333343</v>
+      </c>
+      <c r="E26" s="83">
         <f>IF(D6=0,"-",D6/(1-B26))</f>
-        <v>-</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="F26" s="84">
         <f>((D7*1024)/(D26/8))/3600</f>
-        <v>8.874666666666664E-2</v>
-      </c>
-      <c r="G26" s="85" t="str">
+        <v>0.27306666666666657</v>
+      </c>
+      <c r="G26" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E26/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.54613333333333314</v>
       </c>
       <c r="H26" s="114">
         <f t="shared" si="0"/>
-        <v>3515.6250000000009</v>
-      </c>
-      <c r="I26" s="123" t="str">
+        <v>175.78125000000006</v>
+      </c>
+      <c r="I26" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>87.890625000000028</v>
       </c>
       <c r="J26" s="81">
         <f>(D4*(D5/100))/(1-B26)</f>
-        <v>266.66666666666674</v>
+        <v>26.666666666666671</v>
       </c>
       <c r="K26" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B26))</f>
-        <v>0</v>
+        <v>13.333333333333336</v>
       </c>
       <c r="L26" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J26/8))/3600,0)</f>
-        <v>0.1109333333333333</v>
+        <v>0.34133333333333327</v>
       </c>
       <c r="M26" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K26)/8))/3600),0)</f>
-        <v>0</v>
+        <v>0.68266666666666653</v>
       </c>
       <c r="N26" s="80">
         <f>((J26/8)*36000*(D8/60))/1024</f>
-        <v>468.75000000000011</v>
+        <v>23.437500000000004</v>
       </c>
       <c r="O26" s="80">
         <f>IF(D4&lt;D6,0,((K26/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>11.718750000000002</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="61"/>
@@ -22021,51 +22016,51 @@
       </c>
       <c r="D27" s="82">
         <f>D4/(1-B27)</f>
-        <v>400.00000000000017</v>
-      </c>
-      <c r="E27" s="83" t="str">
+        <v>40.000000000000014</v>
+      </c>
+      <c r="E27" s="83">
         <f>IF(D6=0,"-",D6/(1-B27))</f>
-        <v>-</v>
+        <v>20.000000000000007</v>
       </c>
       <c r="F27" s="84">
         <f>((D7*1024)/(D27/8))/3600</f>
-        <v>7.3955555555555524E-2</v>
-      </c>
-      <c r="G27" s="85" t="str">
+        <v>0.22755555555555548</v>
+      </c>
+      <c r="G27" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E27/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.45511111111111097</v>
       </c>
       <c r="H27" s="114">
         <f t="shared" si="0"/>
-        <v>4218.7500000000018</v>
-      </c>
-      <c r="I27" s="123" t="str">
+        <v>210.93750000000009</v>
+      </c>
+      <c r="I27" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>105.46875000000004</v>
       </c>
       <c r="J27" s="81">
         <f>(D4*(D5/100))/(1-B27)</f>
-        <v>320.00000000000011</v>
+        <v>32.000000000000014</v>
       </c>
       <c r="K27" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B27))</f>
-        <v>0</v>
+        <v>16.000000000000007</v>
       </c>
       <c r="L27" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J27/8))/3600,0)</f>
-        <v>9.2444444444444412E-2</v>
+        <v>0.28444444444444433</v>
       </c>
       <c r="M27" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K27)/8))/3600),0)</f>
-        <v>0</v>
+        <v>0.56888888888888867</v>
       </c>
       <c r="N27" s="80">
         <f>((J27/8)*36000*(D8/60))/1024</f>
-        <v>562.50000000000023</v>
+        <v>28.125000000000014</v>
       </c>
       <c r="O27" s="80">
         <f>IF(D4&lt;D6,0,((K27/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>14.062500000000007</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="61"/>
@@ -22098,51 +22093,51 @@
       </c>
       <c r="D28" s="82">
         <f>D4/(1-B28)</f>
-        <v>500.0000000000004</v>
-      </c>
-      <c r="E28" s="83" t="str">
+        <v>50.000000000000036</v>
+      </c>
+      <c r="E28" s="83">
         <f>IF(D6=0,"-",D6/(1-B28))</f>
-        <v>-</v>
+        <v>25.000000000000018</v>
       </c>
       <c r="F28" s="84">
         <f>((D7*1024)/(D28/8))/3600</f>
-        <v>5.9164444444444395E-2</v>
-      </c>
-      <c r="G28" s="85" t="str">
+        <v>0.18204444444444431</v>
+      </c>
+      <c r="G28" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E28/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.36408888888888863</v>
       </c>
       <c r="H28" s="114">
         <f t="shared" si="0"/>
-        <v>5273.4375000000036</v>
-      </c>
-      <c r="I28" s="123" t="str">
+        <v>263.67187500000017</v>
+      </c>
+      <c r="I28" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>131.83593750000009</v>
       </c>
       <c r="J28" s="81">
         <f>(D4*(D5/100))/(1-B28)</f>
-        <v>400.00000000000028</v>
+        <v>40.000000000000028</v>
       </c>
       <c r="K28" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B28))</f>
-        <v>0</v>
+        <v>20.000000000000014</v>
       </c>
       <c r="L28" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J28/8))/3600,0)</f>
-        <v>7.3955555555555511E-2</v>
+        <v>0.22755555555555537</v>
       </c>
       <c r="M28" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K28)/8))/3600),0)</f>
-        <v>0</v>
+        <v>0.45511111111111074</v>
       </c>
       <c r="N28" s="80">
         <f>((J28/8)*36000*(D8/60))/1024</f>
-        <v>703.12500000000045</v>
+        <v>35.156250000000021</v>
       </c>
       <c r="O28" s="80">
         <f>IF(D4&lt;D6,0,((K28/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>17.578125000000011</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="61"/>
@@ -22171,55 +22166,55 @@
       </c>
       <c r="C29" s="142">
         <f>D29/D4</f>
-        <v>6.666666666666675</v>
+        <v>6.6666666666666758</v>
       </c>
       <c r="D29" s="82">
         <f>D4/(1-B29)</f>
-        <v>666.66666666666754</v>
-      </c>
-      <c r="E29" s="83" t="str">
+        <v>66.666666666666757</v>
+      </c>
+      <c r="E29" s="83">
         <f>IF(D6=0,"-",D6/(1-B29))</f>
-        <v>-</v>
+        <v>33.333333333333378</v>
       </c>
       <c r="F29" s="84">
         <f>((D7*1024)/(D29/8))/3600</f>
-        <v>4.4373333333333279E-2</v>
-      </c>
-      <c r="G29" s="85" t="str">
+        <v>0.13653333333333315</v>
+      </c>
+      <c r="G29" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E29/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.27306666666666629</v>
       </c>
       <c r="H29" s="114">
         <f t="shared" si="0"/>
-        <v>7031.2500000000091</v>
-      </c>
-      <c r="I29" s="123" t="str">
+        <v>351.56250000000045</v>
+      </c>
+      <c r="I29" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>175.78125000000023</v>
       </c>
       <c r="J29" s="81">
         <f>(D4*(D5/100))/(1-B29)</f>
-        <v>533.33333333333405</v>
+        <v>53.333333333333407</v>
       </c>
       <c r="K29" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B29))</f>
-        <v>0</v>
+        <v>26.666666666666703</v>
       </c>
       <c r="L29" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J29/8))/3600,0)</f>
-        <v>5.5466666666666588E-2</v>
+        <v>0.17066666666666644</v>
       </c>
       <c r="M29" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K29)/8))/3600),0)</f>
-        <v>0</v>
+        <v>0.34133333333333288</v>
       </c>
       <c r="N29" s="80">
         <f>((J29/8)*36000*(D8/60))/1024</f>
-        <v>937.50000000000136</v>
+        <v>46.875000000000064</v>
       </c>
       <c r="O29" s="80">
         <f>IF(D4&lt;D6,0,((K29/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>23.437500000000032</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="61"/>
@@ -22248,55 +22243,55 @@
       </c>
       <c r="C30" s="142">
         <f>D30/D4</f>
-        <v>10.000000000000023</v>
+        <v>10.000000000000025</v>
       </c>
       <c r="D30" s="82">
         <f>D4/(1-B30)</f>
-        <v>1000.0000000000024</v>
-      </c>
-      <c r="E30" s="83" t="str">
+        <v>100.00000000000024</v>
+      </c>
+      <c r="E30" s="83">
         <f>IF(D6=0,"-",D6/(1-B30))</f>
-        <v>-</v>
+        <v>50.000000000000121</v>
       </c>
       <c r="F30" s="84">
         <f>((D7*1024)/(D30/8))/3600</f>
-        <v>2.9582222222222149E-2</v>
-      </c>
-      <c r="G30" s="85" t="str">
+        <v>9.1022222222222005E-2</v>
+      </c>
+      <c r="G30" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E30/8))/3600),"-")</f>
-        <v>-</v>
+        <v>0.18204444444444401</v>
       </c>
       <c r="H30" s="114">
         <f t="shared" si="0"/>
-        <v>10546.875000000025</v>
-      </c>
-      <c r="I30" s="123" t="str">
+        <v>527.34375000000125</v>
+      </c>
+      <c r="I30" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>263.67187500000063</v>
       </c>
       <c r="J30" s="81">
         <f>(D4*(D5/100))/(1-B30)</f>
-        <v>800.00000000000193</v>
+        <v>80.000000000000199</v>
       </c>
       <c r="K30" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B30))</f>
-        <v>0</v>
+        <v>40.000000000000099</v>
       </c>
       <c r="L30" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J30/8))/3600,0)</f>
-        <v>3.6977777777777693E-2</v>
+        <v>0.11377777777777751</v>
       </c>
       <c r="M30" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K30)/8))/3600),0)</f>
-        <v>0</v>
+        <v>0.22755555555555501</v>
       </c>
       <c r="N30" s="80">
         <f>((J30/8)*36000*(D8/60))/1024</f>
-        <v>1406.2500000000036</v>
+        <v>70.312500000000171</v>
       </c>
       <c r="O30" s="80">
         <f>IF(D4&lt;D6,0,((K30/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>35.156250000000085</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="61"/>
@@ -22329,51 +22324,51 @@
       </c>
       <c r="D31" s="88">
         <f>D4/(1-B31)</f>
-        <v>2000.0000000000116</v>
-      </c>
-      <c r="E31" s="83" t="str">
+        <v>200.00000000000117</v>
+      </c>
+      <c r="E31" s="83">
         <f>IF(D6=0,"-",D6/(1-B31))</f>
-        <v>-</v>
+        <v>100.00000000000058</v>
       </c>
       <c r="F31" s="89">
         <f>((D7*1024)/(D31/8))/3600</f>
-        <v>1.4791111111111026E-2</v>
-      </c>
-      <c r="G31" s="85" t="str">
+        <v>4.5511111111110843E-2</v>
+      </c>
+      <c r="G31" s="85">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E31/8))/3600),"-")</f>
-        <v>-</v>
+        <v>9.1022222222221685E-2</v>
       </c>
       <c r="H31" s="114">
         <f t="shared" si="0"/>
-        <v>21093.750000000124</v>
-      </c>
-      <c r="I31" s="123" t="str">
+        <v>1054.6875000000061</v>
+      </c>
+      <c r="I31" s="123">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>527.34375000000307</v>
       </c>
       <c r="J31" s="81">
         <f>(D4*(D5/100))/(1-B31)</f>
-        <v>1600.0000000000093</v>
+        <v>160.00000000000091</v>
       </c>
       <c r="K31" s="81">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B31))</f>
-        <v>0</v>
+        <v>80.000000000000455</v>
       </c>
       <c r="L31" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J31/8))/3600,0)</f>
-        <v>1.8488888888888784E-2</v>
+        <v>5.6888888888888565E-2</v>
       </c>
       <c r="M31" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K31)/8))/3600),0)</f>
-        <v>0</v>
+        <v>0.11377777777777713</v>
       </c>
       <c r="N31" s="80">
         <f>((J31/8)*36000*(D8/60))/1024</f>
-        <v>2812.5000000000164</v>
+        <v>140.6250000000008</v>
       </c>
       <c r="O31" s="80">
         <f>IF(D4&lt;D6,0,((K31/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>70.312500000000398</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="61"/>
@@ -22407,51 +22402,51 @@
       </c>
       <c r="D32" s="136">
         <f>D4/(1-B32)</f>
-        <v>3999.9999999999964</v>
-      </c>
-      <c r="E32" s="137" t="str">
+        <v>399.99999999999966</v>
+      </c>
+      <c r="E32" s="137">
         <f>IF(D6=0,"-",D6/(1-B32))</f>
-        <v>-</v>
+        <v>199.99999999999983</v>
       </c>
       <c r="F32" s="138">
         <f>((D7*1024)/(D32/8))/3600</f>
-        <v>7.3955555555555623E-3</v>
-      </c>
-      <c r="G32" s="139" t="str">
+        <v>2.2755555555555577E-2</v>
+      </c>
+      <c r="G32" s="139">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/(E32/8))/3600),"-")</f>
-        <v>-</v>
+        <v>4.5511111111111155E-2</v>
       </c>
       <c r="H32" s="140">
         <f>((D32/8)*36000*(D8/60))/1024</f>
-        <v>7031.2499999999945</v>
-      </c>
-      <c r="I32" s="141" t="str">
+        <v>351.56249999999972</v>
+      </c>
+      <c r="I32" s="141">
         <f>IF(D6=0,"-",((E32/8)*36000*(D8/60))/1024)</f>
-        <v>-</v>
+        <v>175.78124999999986</v>
       </c>
       <c r="J32" s="81">
         <f>(D4*(D5/100))/(1-B32)</f>
-        <v>3199.9999999999973</v>
+        <v>319.99999999999972</v>
       </c>
       <c r="K32" s="90">
         <f>IF(D4&lt;D6,0,(D6*(D5/100))/(1-B32))</f>
-        <v>0</v>
+        <v>159.99999999999986</v>
       </c>
       <c r="L32" s="80">
         <f>IF(J12&gt;0,((D7*1024)/(J32/8))/3600,0)</f>
-        <v>9.2444444444444527E-3</v>
+        <v>2.844444444444447E-2</v>
       </c>
       <c r="M32" s="80">
         <f>IF(D6&lt;&gt;0,IF(D4&lt;D6,0,((D7*1024)/((K32)/8))/3600),0)</f>
-        <v>0</v>
+        <v>5.688888888888894E-2</v>
       </c>
       <c r="N32" s="80">
         <f>((J32/8)*36000*(D8/60))/1024</f>
-        <v>5624.9999999999955</v>
+        <v>281.24999999999977</v>
       </c>
       <c r="O32" s="80">
         <f>IF(D4&lt;D6,0,((K32/8)*36000*(D8/60))/1024)</f>
-        <v>0</v>
+        <v>140.62499999999989</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="61"/>
@@ -22659,9 +22654,7 @@
     </row>
     <row r="38" spans="1:33" ht="15" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -22975,7 +22968,7 @@
       <c r="AG46" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9JOYQhfF5hiR9lGGmloEEezRM8qP8nD0Sk0cY6pme9hFPoD4KmxzJgok279PqEQLE2bZpspwlgwpEkXhz6T+dA==" saltValue="MMcxJZM1CDElqOtOUwV3lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="21">
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="E5:I5"/>
@@ -23029,10 +23022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66ABEF2-B276-46EF-8C25-44620CF15BAA}">
-  <dimension ref="A2:AB35"/>
+  <dimension ref="A2:AB30"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23055,7 +23048,7 @@
       <c r="D2" s="205"/>
       <c r="F2" s="168" t="str">
         <f>"    Logical Throughput (Gbps) on a " &amp; 'Transmission Efficiency'!D4 &amp;" Gbps physical link"</f>
-        <v xml:space="preserve">    Logical Throughput (Gbps) on a 100 Gbps physical link</v>
+        <v xml:space="preserve">    Logical Throughput (Gbps) on a 10 Gbps physical link</v>
       </c>
       <c r="G2" s="168"/>
       <c r="H2" s="168"/>
@@ -23064,7 +23057,7 @@
       <c r="K2" s="168"/>
       <c r="M2" s="168" t="str">
         <f>"        Time to  logically transfer " &amp; 'Transmission Efficiency'!D7 &amp; " TiB  on a " &amp; 'Transmission Efficiency'!D4 &amp; " Gps link"</f>
-        <v xml:space="preserve">        Time to  logically transfer 13 TiB  on a 100 Gps link</v>
+        <v xml:space="preserve">        Time to  logically transfer 4 TiB  on a 10 Gps link</v>
       </c>
       <c r="N2" s="168"/>
       <c r="O2" s="168"/>
@@ -23074,7 +23067,7 @@
       <c r="S2" s="168"/>
       <c r="U2" s="168" t="str">
         <f>"       Logical Data Transferred in " &amp; 'Transmission Efficiency'!D8 &amp; " hours on a " &amp; 'Transmission Efficiency'!D4 &amp; " Gps link"</f>
-        <v xml:space="preserve">       Logical Data Transferred in 24 hours on a 100 Gps link</v>
+        <v xml:space="preserve">       Logical Data Transferred in 12 hours on a 10 Gps link</v>
       </c>
       <c r="V2" s="168"/>
       <c r="W2" s="168"/>
@@ -23090,7 +23083,7 @@
       <c r="D3" s="117"/>
       <c r="F3" s="209" t="str">
         <f>IF('Transmission Efficiency'!D6&gt;0,("At " &amp; 'Transmission Efficiency'!D5 &amp;" % usable throughput, throttled at " &amp; 'Transmission Efficiency'!D6 &amp; " Gbps"),("At " &amp; 'Transmission Efficiency'!D5 &amp;" % usable throughput, not throttled"))</f>
-        <v>At 80 % usable throughput, not throttled</v>
+        <v>At 80 % usable throughput, throttled at 5 Gbps</v>
       </c>
       <c r="G3" s="209"/>
       <c r="H3" s="209"/>
@@ -23101,7 +23094,7 @@
       <c r="M3" s="119"/>
       <c r="N3" s="208" t="str">
         <f>IF('Transmission Efficiency'!D6&gt;0,("At " &amp; 'Transmission Efficiency'!D5 &amp;" % usable throughput, throttled at " &amp; 'Transmission Efficiency'!D6 &amp; " Gbps"),("At " &amp; 'Transmission Efficiency'!D5 &amp;" % usable throughput, not throttled"))</f>
-        <v>At 80 % usable throughput, not throttled</v>
+        <v>At 80 % usable throughput, throttled at 5 Gbps</v>
       </c>
       <c r="O3" s="208"/>
       <c r="P3" s="208"/>
@@ -23111,7 +23104,7 @@
       <c r="U3" s="119"/>
       <c r="V3" s="208" t="str">
         <f>IF('Transmission Efficiency'!D6&gt;0,("At " &amp; 'Transmission Efficiency'!D5 &amp;" % usable throughput, throttled at " &amp; 'Transmission Efficiency'!D6 &amp; " Gbps"),("At " &amp; 'Transmission Efficiency'!D5 &amp;" % usable throughput, not throttled"))</f>
-        <v>At 80 % usable throughput, not throttled</v>
+        <v>At 80 % usable throughput, throttled at 5 Gbps</v>
       </c>
       <c r="W3" s="208"/>
       <c r="X3" s="208"/>
@@ -23171,7 +23164,7 @@
     <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="206" t="str">
         <f>"     - Advertised physical link is "&amp;'Transmission Efficiency'!D4 &amp;" Gbps"</f>
-        <v xml:space="preserve">     - Advertised physical link is 100 Gbps</v>
+        <v xml:space="preserve">     - Advertised physical link is 10 Gbps</v>
       </c>
       <c r="B8" s="206"/>
       <c r="C8" s="206"/>
@@ -23189,7 +23182,7 @@
     <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="206" t="str">
         <f>"     - Usable physical link is "&amp;('Transmission Efficiency'!D4*('Transmission Efficiency'!D5/100))&amp;" Gbps"</f>
-        <v xml:space="preserve">     - Usable physical link is 80 Gbps</v>
+        <v xml:space="preserve">     - Usable physical link is 8 Gbps</v>
       </c>
       <c r="B10" s="206"/>
       <c r="C10" s="206"/>
@@ -23198,7 +23191,7 @@
     <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="206" t="str">
         <f>IF('Transmission Efficiency'!D6&gt;0, "     - Bandwidth throttled  at " &amp;'Transmission Efficiency'!D6&amp; " Gbps","     - Bandwidth not throttled")</f>
-        <v xml:space="preserve">     - Bandwidth not throttled</v>
+        <v xml:space="preserve">     - Bandwidth throttled  at 5 Gbps</v>
       </c>
       <c r="B11" s="206"/>
       <c r="C11" s="206"/>
@@ -23258,7 +23251,7 @@
       <c r="F23" s="55"/>
       <c r="H23" s="207" t="str">
         <f>"Logical Storage Capacity for a " &amp; 'Storage Efficiency'!D4 &amp; " TiB Volume"</f>
-        <v>Logical Storage Capacity for a 300 TiB Volume</v>
+        <v>Logical Storage Capacity for a 70 TiB Volume</v>
       </c>
       <c r="I23" s="207"/>
       <c r="J23" s="207"/>
@@ -23267,7 +23260,7 @@
       <c r="M23" s="207"/>
       <c r="Q23" s="168" t="str">
         <f>"Physical Storage Used for " &amp; 'Storage Efficiency'!D5 &amp; " TiB Data in a " &amp; 'Storage Efficiency'!D4 &amp; " TiB volume"</f>
-        <v>Physical Storage Used for 50 TiB Data in a 300 TiB volume</v>
+        <v>Physical Storage Used for 50 TiB Data in a 70 TiB volume</v>
       </c>
       <c r="R23" s="168"/>
       <c r="S23" s="168"/>
@@ -23295,7 +23288,7 @@
       <c r="B28" s="60"/>
       <c r="C28" s="204" t="str">
         <f>"Dedpuplication efficiency determines total data that can be stored on " &amp; 'Storage Efficiency'!D4 &amp; " TiB deduplicated volume"</f>
-        <v>Dedpuplication efficiency determines total data that can be stored on 300 TiB deduplicated volume</v>
+        <v>Dedpuplication efficiency determines total data that can be stored on 70 TiB deduplicated volume</v>
       </c>
       <c r="D28" s="204"/>
       <c r="E28" s="204"/>
@@ -23333,13 +23326,8 @@
       <c r="AA30" s="203"/>
       <c r="AB30" s="203"/>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RzWMcjiUcfZSbT0BBIJKjBFy7zJPKZ4JL1cjoLEa9IOte6JwSVnqJCwND8iFRIQeD5SjN2CVuV61e+kx8F/WWA==" saltValue="/VfJDxdMA3PWoiz6IbWtZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="17">
     <mergeCell ref="V3:AA3"/>
     <mergeCell ref="F2:K2"/>
